--- a/HTMLversion/revised_HTML/SymbolsEquations.xlsx
+++ b/HTMLversion/revised_HTML/SymbolsEquations.xlsx
@@ -364,9 +364,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G328"/>
+  <dimension ref="A1:G356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A319" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29:D354"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -374,13 +376,19 @@
       <c r="A1" t="s">
         <v>2</v>
       </c>
-      <c r="C1">
-        <v>1</v>
+      <c r="D1">
+        <v>210</v>
+      </c>
+      <c r="E1">
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C2">
-        <v>2</v>
+      <c r="D2">
+        <v>211</v>
+      </c>
+      <c r="E2" s="1">
+        <v>211</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>0</v>
@@ -390,8 +398,11 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C3">
-        <v>3</v>
+      <c r="D3">
+        <v>212</v>
+      </c>
+      <c r="E3" s="1">
+        <v>212</v>
       </c>
       <c r="F3" s="1">
         <v>1</v>
@@ -401,8 +412,11 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C4">
-        <v>4</v>
+      <c r="D4">
+        <v>219</v>
+      </c>
+      <c r="E4" s="1">
+        <v>219</v>
       </c>
       <c r="F4" s="1">
         <v>2</v>
@@ -412,8 +426,12 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C5">
-        <v>5</v>
+      <c r="A5" s="1"/>
+      <c r="D5">
+        <v>220</v>
+      </c>
+      <c r="E5" s="1">
+        <v>220</v>
       </c>
       <c r="F5" s="1">
         <v>3</v>
@@ -423,8 +441,12 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C6">
-        <v>6</v>
+      <c r="A6" s="1"/>
+      <c r="D6">
+        <v>226</v>
+      </c>
+      <c r="E6" s="1">
+        <v>226</v>
       </c>
       <c r="F6" s="1">
         <v>4</v>
@@ -434,8 +456,12 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C7">
-        <v>7</v>
+      <c r="A7" s="1"/>
+      <c r="D7">
+        <v>228</v>
+      </c>
+      <c r="E7" s="1">
+        <v>228</v>
       </c>
       <c r="F7" s="1">
         <v>5</v>
@@ -445,8 +471,12 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8">
-        <v>8</v>
+      <c r="A8" s="1"/>
+      <c r="D8">
+        <v>232</v>
+      </c>
+      <c r="E8" s="1">
+        <v>232</v>
       </c>
       <c r="F8" s="1">
         <v>6</v>
@@ -456,8 +486,12 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C9">
-        <v>9</v>
+      <c r="A9" s="1"/>
+      <c r="D9">
+        <v>233</v>
+      </c>
+      <c r="E9" s="1">
+        <v>233</v>
       </c>
       <c r="F9" s="1">
         <v>7</v>
@@ -467,8 +501,12 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C10">
-        <v>10</v>
+      <c r="A10" s="1"/>
+      <c r="D10">
+        <v>239</v>
+      </c>
+      <c r="E10" s="1">
+        <v>239</v>
       </c>
       <c r="F10" s="1">
         <v>8</v>
@@ -478,8 +516,12 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C11">
-        <v>11</v>
+      <c r="A11" s="1"/>
+      <c r="D11">
+        <v>245</v>
+      </c>
+      <c r="E11" s="1">
+        <v>245</v>
       </c>
       <c r="F11" s="1">
         <v>9</v>
@@ -489,8 +531,12 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C12">
-        <v>12</v>
+      <c r="A12" s="1"/>
+      <c r="D12">
+        <v>247</v>
+      </c>
+      <c r="E12" s="1">
+        <v>247</v>
       </c>
       <c r="F12" s="1">
         <v>10</v>
@@ -500,8 +546,12 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <v>13</v>
+      <c r="A13" s="1"/>
+      <c r="D13">
+        <v>257</v>
+      </c>
+      <c r="E13" s="1">
+        <v>257</v>
       </c>
       <c r="F13" s="1">
         <v>11</v>
@@ -511,8 +561,12 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C14">
-        <v>14</v>
+      <c r="A14" s="1"/>
+      <c r="D14">
+        <v>264</v>
+      </c>
+      <c r="E14" s="1">
+        <v>264</v>
       </c>
       <c r="F14" s="1">
         <v>12</v>
@@ -522,8 +576,12 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C15">
-        <v>15</v>
+      <c r="A15" s="1"/>
+      <c r="D15">
+        <v>266</v>
+      </c>
+      <c r="E15" s="1">
+        <v>266</v>
       </c>
       <c r="F15" s="1">
         <v>13</v>
@@ -533,8 +591,12 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C16">
-        <v>16</v>
+      <c r="A16" s="1"/>
+      <c r="D16">
+        <v>278</v>
+      </c>
+      <c r="E16" s="1">
+        <v>278</v>
       </c>
       <c r="F16" s="1">
         <v>14</v>
@@ -543,9 +605,13 @@
         <v>264</v>
       </c>
     </row>
-    <row r="17" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C17">
-        <v>17</v>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="D17">
+        <v>279</v>
+      </c>
+      <c r="E17" s="1">
+        <v>279</v>
       </c>
       <c r="F17" s="1">
         <v>15</v>
@@ -554,9 +620,13 @@
         <v>266</v>
       </c>
     </row>
-    <row r="18" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C18">
-        <v>18</v>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="D18">
+        <v>280</v>
+      </c>
+      <c r="E18" s="1">
+        <v>280</v>
       </c>
       <c r="F18" s="1">
         <v>16</v>
@@ -565,9 +635,13 @@
         <v>278</v>
       </c>
     </row>
-    <row r="19" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C19">
-        <v>19</v>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="D19">
+        <v>325</v>
+      </c>
+      <c r="E19" s="1">
+        <v>325</v>
       </c>
       <c r="F19" s="1">
         <v>17</v>
@@ -576,9 +650,13 @@
         <v>279</v>
       </c>
     </row>
-    <row r="20" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <v>20</v>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="D20">
+        <v>331</v>
+      </c>
+      <c r="E20" s="1">
+        <v>331</v>
       </c>
       <c r="F20" s="1">
         <v>18</v>
@@ -587,9 +665,13 @@
         <v>280</v>
       </c>
     </row>
-    <row r="21" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C21">
-        <v>21</v>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="D21">
+        <v>332</v>
+      </c>
+      <c r="E21" s="1">
+        <v>332</v>
       </c>
       <c r="F21" s="1">
         <v>19</v>
@@ -598,9 +680,13 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C22">
-        <v>22</v>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="D22">
+        <v>333</v>
+      </c>
+      <c r="E22" s="1">
+        <v>333</v>
       </c>
       <c r="F22" s="1">
         <v>20</v>
@@ -609,9 +695,13 @@
         <v>331</v>
       </c>
     </row>
-    <row r="23" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C23">
-        <v>23</v>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="D23">
+        <v>336</v>
+      </c>
+      <c r="E23" s="1">
+        <v>336</v>
       </c>
       <c r="F23" s="1">
         <v>21</v>
@@ -620,9 +710,13 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C24">
-        <v>24</v>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="D24">
+        <v>349</v>
+      </c>
+      <c r="E24" s="1">
+        <v>349</v>
       </c>
       <c r="F24" s="1">
         <v>22</v>
@@ -631,9 +725,13 @@
         <v>333</v>
       </c>
     </row>
-    <row r="25" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C25">
-        <v>25</v>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="D25">
+        <v>350</v>
+      </c>
+      <c r="E25" s="1">
+        <v>350</v>
       </c>
       <c r="F25" s="1">
         <v>23</v>
@@ -642,9 +740,13 @@
         <v>336</v>
       </c>
     </row>
-    <row r="26" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C26">
-        <v>26</v>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="D26">
+        <v>351</v>
+      </c>
+      <c r="E26" s="1">
+        <v>351</v>
       </c>
       <c r="F26" s="1">
         <v>24</v>
@@ -653,9 +755,13 @@
         <v>349</v>
       </c>
     </row>
-    <row r="27" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C27">
-        <v>27</v>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="D27">
+        <v>353</v>
+      </c>
+      <c r="E27" s="1">
+        <v>353</v>
       </c>
       <c r="F27" s="1">
         <v>25</v>
@@ -664,9 +770,13 @@
         <v>350</v>
       </c>
     </row>
-    <row r="28" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C28">
-        <v>28</v>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="D28">
+        <v>354</v>
+      </c>
+      <c r="E28" s="1">
+        <v>354</v>
       </c>
       <c r="F28" s="1">
         <v>26</v>
@@ -675,9 +785,13 @@
         <v>351</v>
       </c>
     </row>
-    <row r="29" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C29">
-        <v>29</v>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F29" s="1">
         <v>27</v>
@@ -686,9 +800,13 @@
         <v>353</v>
       </c>
     </row>
-    <row r="30" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C30">
-        <v>30</v>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="D30">
+        <v>2</v>
+      </c>
+      <c r="E30" s="1" t="e">
+        <v>#N/A</v>
       </c>
       <c r="F30" s="1">
         <v>28</v>
@@ -697,1497 +815,2932 @@
         <v>354</v>
       </c>
     </row>
-    <row r="31" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C31">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="D31">
+        <v>3</v>
+      </c>
+      <c r="E31" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="D32">
+        <v>4</v>
+      </c>
+      <c r="E32" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="D33">
+        <v>5</v>
+      </c>
+      <c r="E33" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="D34">
+        <v>6</v>
+      </c>
+      <c r="E34" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="D35">
+        <v>7</v>
+      </c>
+      <c r="E35" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="D36">
+        <v>8</v>
+      </c>
+      <c r="E36" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="D38">
+        <v>10</v>
+      </c>
+      <c r="E38" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="D39">
+        <v>11</v>
+      </c>
+      <c r="E39" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="1"/>
+      <c r="D40">
+        <v>12</v>
+      </c>
+      <c r="E40" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="D41">
+        <v>13</v>
+      </c>
+      <c r="E41" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1"/>
+      <c r="D42">
+        <v>14</v>
+      </c>
+      <c r="E42" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="1"/>
+      <c r="D43">
+        <v>15</v>
+      </c>
+      <c r="E43" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="1"/>
+      <c r="D44">
+        <v>16</v>
+      </c>
+      <c r="E44" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="1"/>
+      <c r="D45">
+        <v>17</v>
+      </c>
+      <c r="E45" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="1"/>
+      <c r="D46">
+        <v>18</v>
+      </c>
+      <c r="E46" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="1"/>
+      <c r="D47">
+        <v>19</v>
+      </c>
+      <c r="E47" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="1"/>
+      <c r="D48">
+        <v>20</v>
+      </c>
+      <c r="E48" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="1"/>
+      <c r="D49">
+        <v>21</v>
+      </c>
+      <c r="E49" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="1"/>
+      <c r="D50">
+        <v>22</v>
+      </c>
+      <c r="E50" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="1"/>
+      <c r="D51">
+        <v>23</v>
+      </c>
+      <c r="E51" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="1"/>
+      <c r="D52">
+        <v>24</v>
+      </c>
+      <c r="E52" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="1"/>
+      <c r="D53">
+        <v>25</v>
+      </c>
+      <c r="E53" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="1"/>
+      <c r="D54">
+        <v>26</v>
+      </c>
+      <c r="E54" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="1"/>
+      <c r="D55">
+        <v>27</v>
+      </c>
+      <c r="E55" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="1"/>
+      <c r="D56">
+        <v>28</v>
+      </c>
+      <c r="E56" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="1"/>
+      <c r="D57">
+        <v>29</v>
+      </c>
+      <c r="E57" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="1"/>
+      <c r="D58">
+        <v>30</v>
+      </c>
+      <c r="E58" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="1"/>
+      <c r="D59">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C32">
+      <c r="E59" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="1"/>
+      <c r="D60">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C33">
+      <c r="E60" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="1"/>
+      <c r="D61">
         <v>33</v>
       </c>
-    </row>
-    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C34">
+      <c r="E61" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="1"/>
+      <c r="D62">
         <v>34</v>
       </c>
-    </row>
-    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C35">
+      <c r="E62" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" s="1"/>
+      <c r="D63">
         <v>35</v>
       </c>
-    </row>
-    <row r="36" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C36">
+      <c r="E63" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="1"/>
+      <c r="D64">
         <v>36</v>
       </c>
-    </row>
-    <row r="37" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C37">
+      <c r="E64" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="1"/>
+      <c r="D65">
         <v>37</v>
       </c>
-    </row>
-    <row r="38" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C38">
+      <c r="E65" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="1"/>
+      <c r="D66">
         <v>38</v>
       </c>
-    </row>
-    <row r="39" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C39">
+      <c r="E66" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="1"/>
+      <c r="D67">
         <v>39</v>
       </c>
-    </row>
-    <row r="40" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C40">
+      <c r="E67" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="1"/>
+      <c r="D68">
         <v>40</v>
       </c>
-    </row>
-    <row r="41" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C41">
+      <c r="E68" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="1"/>
+      <c r="D69">
         <v>41</v>
       </c>
-    </row>
-    <row r="42" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C42">
+      <c r="E69" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="1"/>
+      <c r="D70">
         <v>42</v>
       </c>
-    </row>
-    <row r="43" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C43">
+      <c r="E70" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="1"/>
+      <c r="D71">
         <v>43</v>
       </c>
-    </row>
-    <row r="44" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C44">
+      <c r="E71" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="1"/>
+      <c r="D72">
         <v>44</v>
       </c>
-    </row>
-    <row r="45" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C45">
+      <c r="E72" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="1"/>
+      <c r="D73">
         <v>45</v>
       </c>
-    </row>
-    <row r="46" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C46">
+      <c r="E73" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" s="1"/>
+      <c r="D74">
         <v>46</v>
       </c>
-    </row>
-    <row r="47" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C47">
+      <c r="E74" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="1"/>
+      <c r="D75">
         <v>47</v>
       </c>
-    </row>
-    <row r="48" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C48">
+      <c r="E75" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="1"/>
+      <c r="D76">
         <v>48</v>
       </c>
-    </row>
-    <row r="49" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C49">
+      <c r="E76" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="1"/>
+      <c r="D77">
         <v>49</v>
       </c>
-    </row>
-    <row r="50" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C50">
+      <c r="E77" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="1"/>
+      <c r="D78">
         <v>50</v>
       </c>
-    </row>
-    <row r="51" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C51">
+      <c r="E78" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="1"/>
+      <c r="D79">
         <v>51</v>
       </c>
-    </row>
-    <row r="52" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C52">
+      <c r="E79" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="1"/>
+      <c r="D80">
         <v>52</v>
       </c>
-    </row>
-    <row r="53" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C53">
+      <c r="E80" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="1"/>
+      <c r="D81">
         <v>53</v>
       </c>
-    </row>
-    <row r="54" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C54">
+      <c r="E81" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="1"/>
+      <c r="D82">
         <v>54</v>
       </c>
-    </row>
-    <row r="55" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C55">
+      <c r="E82" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="1"/>
+      <c r="D83">
         <v>55</v>
       </c>
-    </row>
-    <row r="56" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C56">
+      <c r="E83" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="1"/>
+      <c r="D84">
         <v>56</v>
       </c>
-    </row>
-    <row r="57" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C57">
+      <c r="E84" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="1"/>
+      <c r="D85">
         <v>57</v>
       </c>
-    </row>
-    <row r="58" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C58">
+      <c r="E85" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="1"/>
+      <c r="D86">
         <v>58</v>
       </c>
-    </row>
-    <row r="59" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C59">
+      <c r="E86" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="1"/>
+      <c r="D87">
         <v>59</v>
       </c>
-    </row>
-    <row r="60" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C60">
+      <c r="E87" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="1"/>
+      <c r="D88">
         <v>60</v>
       </c>
-    </row>
-    <row r="61" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C61">
+      <c r="E88" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="1"/>
+      <c r="D89">
         <v>61</v>
       </c>
-    </row>
-    <row r="62" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C62">
+      <c r="E89" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="1"/>
+      <c r="D90">
         <v>62</v>
       </c>
-    </row>
-    <row r="63" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C63">
+      <c r="E90" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="1"/>
+      <c r="D91">
         <v>63</v>
       </c>
-    </row>
-    <row r="64" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C64">
+      <c r="E91" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="1"/>
+      <c r="D92">
         <v>64</v>
       </c>
-    </row>
-    <row r="65" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C65">
+      <c r="E92" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="1"/>
+      <c r="D93">
         <v>65</v>
       </c>
-    </row>
-    <row r="66" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C66">
+      <c r="E93" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="1"/>
+      <c r="D94">
         <v>66</v>
       </c>
-    </row>
-    <row r="67" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C67">
+      <c r="E94" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="1"/>
+      <c r="D95">
         <v>67</v>
       </c>
-    </row>
-    <row r="68" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C68">
+      <c r="E95" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="1"/>
+      <c r="D96">
         <v>68</v>
       </c>
-    </row>
-    <row r="69" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C69">
+      <c r="E96" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" s="1"/>
+      <c r="D97">
         <v>69</v>
       </c>
-    </row>
-    <row r="70" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C70">
+      <c r="E97" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" s="1"/>
+      <c r="D98">
         <v>70</v>
       </c>
-    </row>
-    <row r="71" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C71">
+      <c r="E98" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" s="1"/>
+      <c r="D99">
         <v>71</v>
       </c>
-    </row>
-    <row r="72" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C72">
+      <c r="E99" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" s="1"/>
+      <c r="D100">
         <v>72</v>
       </c>
-    </row>
-    <row r="73" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C73">
+      <c r="E100" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" s="1"/>
+      <c r="D101">
         <v>73</v>
       </c>
-    </row>
-    <row r="74" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C74">
+      <c r="E101" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" s="1"/>
+      <c r="D102">
         <v>74</v>
       </c>
-    </row>
-    <row r="75" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C75">
+      <c r="E102" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" s="1"/>
+      <c r="D103">
         <v>75</v>
       </c>
-    </row>
-    <row r="76" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C76">
+      <c r="E103" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" s="1"/>
+      <c r="D104">
         <v>76</v>
       </c>
-    </row>
-    <row r="77" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C77">
+      <c r="E104" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" s="1"/>
+      <c r="D105">
         <v>77</v>
       </c>
-    </row>
-    <row r="78" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C78">
+      <c r="E105" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" s="1"/>
+      <c r="D106">
         <v>78</v>
       </c>
-    </row>
-    <row r="79" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C79">
+      <c r="E106" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" s="1"/>
+      <c r="D107">
         <v>79</v>
       </c>
-    </row>
-    <row r="80" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C80">
+      <c r="E107" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" s="1"/>
+      <c r="D108">
         <v>80</v>
       </c>
-    </row>
-    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C81">
+      <c r="E108" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" s="1"/>
+      <c r="D109">
         <v>81</v>
       </c>
-    </row>
-    <row r="82" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C82">
+      <c r="E109" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="1"/>
+      <c r="D110">
         <v>82</v>
       </c>
-    </row>
-    <row r="83" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C83">
+      <c r="E110" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" s="1"/>
+      <c r="D111">
         <v>83</v>
       </c>
-    </row>
-    <row r="84" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C84">
+      <c r="E111" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" s="1"/>
+      <c r="D112">
         <v>84</v>
       </c>
-    </row>
-    <row r="85" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C85">
+      <c r="E112" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" s="1"/>
+      <c r="D113">
         <v>85</v>
       </c>
-    </row>
-    <row r="86" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C86">
+      <c r="E113" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" s="1"/>
+      <c r="D114">
         <v>86</v>
       </c>
-    </row>
-    <row r="87" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C87">
+      <c r="E114" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" s="1"/>
+      <c r="D115">
         <v>87</v>
       </c>
-    </row>
-    <row r="88" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C88">
+      <c r="E115" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" s="1"/>
+      <c r="D116">
         <v>88</v>
       </c>
-    </row>
-    <row r="89" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C89">
+      <c r="E116" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" s="1"/>
+      <c r="D117">
         <v>89</v>
       </c>
-    </row>
-    <row r="90" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C90">
+      <c r="E117" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" s="1"/>
+      <c r="D118">
         <v>90</v>
       </c>
-    </row>
-    <row r="91" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C91">
+      <c r="E118" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" s="1"/>
+      <c r="D119">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C92">
+      <c r="E119" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" s="1"/>
+      <c r="D120">
         <v>92</v>
       </c>
-    </row>
-    <row r="93" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C93">
+      <c r="E120" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" s="1"/>
+      <c r="D121">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C94">
+      <c r="E121" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" s="1"/>
+      <c r="D122">
         <v>94</v>
       </c>
-    </row>
-    <row r="95" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C95">
+      <c r="E122" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" s="1"/>
+      <c r="D123">
         <v>95</v>
       </c>
-    </row>
-    <row r="96" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C96">
+      <c r="E123" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" s="1"/>
+      <c r="D124">
         <v>96</v>
       </c>
-    </row>
-    <row r="97" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C97">
+      <c r="E124" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" s="1"/>
+      <c r="D125">
         <v>97</v>
       </c>
-    </row>
-    <row r="98" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C98">
+      <c r="E125" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" s="1"/>
+      <c r="D126">
         <v>98</v>
       </c>
-    </row>
-    <row r="99" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C99">
+      <c r="E126" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" s="1"/>
+      <c r="D127">
         <v>99</v>
       </c>
-    </row>
-    <row r="100" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C100">
+      <c r="E127" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" s="1"/>
+      <c r="D128">
         <v>100</v>
       </c>
-    </row>
-    <row r="101" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C101">
+      <c r="E128" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" s="1"/>
+      <c r="D129">
         <v>101</v>
       </c>
-    </row>
-    <row r="102" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C102">
+      <c r="E129" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" s="1"/>
+      <c r="D130">
         <v>102</v>
       </c>
-    </row>
-    <row r="103" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C103">
+      <c r="E130" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" s="1"/>
+      <c r="D131">
         <v>103</v>
       </c>
-    </row>
-    <row r="104" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C104">
+      <c r="E131" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" s="1"/>
+      <c r="D132">
         <v>104</v>
       </c>
-    </row>
-    <row r="105" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C105">
+      <c r="E132" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" s="1"/>
+      <c r="D133">
         <v>105</v>
       </c>
-    </row>
-    <row r="106" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C106">
+      <c r="E133" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" s="1"/>
+      <c r="D134">
         <v>106</v>
       </c>
-    </row>
-    <row r="107" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C107">
+      <c r="E134" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" s="1"/>
+      <c r="D135">
         <v>107</v>
       </c>
-    </row>
-    <row r="108" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C108">
+      <c r="E135" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" s="1"/>
+      <c r="D136">
         <v>108</v>
       </c>
-    </row>
-    <row r="109" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C109">
+      <c r="E136" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" s="1"/>
+      <c r="D137">
         <v>109</v>
       </c>
-    </row>
-    <row r="110" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C110">
+      <c r="E137" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" s="1"/>
+      <c r="D138">
         <v>110</v>
       </c>
-    </row>
-    <row r="111" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C111">
+      <c r="E138" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" s="1"/>
+      <c r="D139">
         <v>111</v>
       </c>
-    </row>
-    <row r="112" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C112">
+      <c r="E139" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" s="1"/>
+      <c r="D140">
         <v>112</v>
       </c>
-    </row>
-    <row r="113" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C113">
+      <c r="E140" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" s="1"/>
+      <c r="D141">
         <v>113</v>
       </c>
-    </row>
-    <row r="114" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C114">
+      <c r="E141" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" s="1"/>
+      <c r="D142">
         <v>114</v>
       </c>
-    </row>
-    <row r="115" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C115">
+      <c r="E142" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" s="1"/>
+      <c r="D143">
         <v>115</v>
       </c>
-    </row>
-    <row r="116" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C116">
+      <c r="E143" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" s="1"/>
+      <c r="D144">
         <v>116</v>
       </c>
-    </row>
-    <row r="117" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C117">
+      <c r="E144" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" s="1"/>
+      <c r="D145">
         <v>117</v>
       </c>
-    </row>
-    <row r="118" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C118">
+      <c r="E145" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" s="1"/>
+      <c r="D146">
         <v>118</v>
       </c>
-    </row>
-    <row r="119" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C119">
+      <c r="E146" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" s="1"/>
+      <c r="D147">
         <v>119</v>
       </c>
-    </row>
-    <row r="120" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C120">
+      <c r="E147" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148" s="1"/>
+      <c r="D148">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C121">
+      <c r="E148" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149" s="1"/>
+      <c r="D149">
         <v>121</v>
       </c>
-    </row>
-    <row r="122" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C122">
+      <c r="E149" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150" s="1"/>
+      <c r="D150">
         <v>122</v>
       </c>
-    </row>
-    <row r="123" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C123">
+      <c r="E150" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151" s="1"/>
+      <c r="D151">
         <v>123</v>
       </c>
-    </row>
-    <row r="124" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C124">
+      <c r="E151" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152" s="1"/>
+      <c r="D152">
         <v>124</v>
       </c>
-    </row>
-    <row r="125" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C125">
+      <c r="E152" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153" s="1"/>
+      <c r="D153">
         <v>125</v>
       </c>
-    </row>
-    <row r="126" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C126">
+      <c r="E153" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154" s="1"/>
+      <c r="D154">
         <v>126</v>
       </c>
-    </row>
-    <row r="127" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C127">
+      <c r="E154" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155" s="1"/>
+      <c r="D155">
         <v>127</v>
       </c>
-    </row>
-    <row r="128" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C128">
+      <c r="E155" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156" s="1"/>
+      <c r="D156">
         <v>128</v>
       </c>
-    </row>
-    <row r="129" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C129">
+      <c r="E156" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="D157">
         <v>129</v>
       </c>
-    </row>
-    <row r="130" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C130">
+      <c r="E157" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158" s="1"/>
+      <c r="D158">
         <v>130</v>
       </c>
-    </row>
-    <row r="131" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C131">
+      <c r="E158" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="D159">
         <v>131</v>
       </c>
-    </row>
-    <row r="132" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C132">
+      <c r="E159" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160" s="1"/>
+      <c r="D160">
         <v>132</v>
       </c>
-    </row>
-    <row r="133" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C133">
+      <c r="E160" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161" s="1"/>
+      <c r="D161">
         <v>133</v>
       </c>
-    </row>
-    <row r="134" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C134">
+      <c r="E161" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="D162">
         <v>134</v>
       </c>
-    </row>
-    <row r="135" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C135">
+      <c r="E162" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163" s="1"/>
+      <c r="D163">
         <v>135</v>
       </c>
-    </row>
-    <row r="136" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C136">
+      <c r="E163" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164" s="1"/>
+      <c r="D164">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C137">
+      <c r="E164" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165" s="1"/>
+      <c r="D165">
         <v>137</v>
       </c>
-    </row>
-    <row r="138" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C138">
+      <c r="E165" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166" s="1"/>
+      <c r="D166">
         <v>138</v>
       </c>
-    </row>
-    <row r="139" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C139">
+      <c r="E166" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167" s="1"/>
+      <c r="D167">
         <v>139</v>
       </c>
-    </row>
-    <row r="140" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C140">
+      <c r="E167" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168" s="1"/>
+      <c r="D168">
         <v>140</v>
       </c>
-    </row>
-    <row r="141" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C141">
+      <c r="E168" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="D169">
         <v>141</v>
       </c>
-    </row>
-    <row r="142" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C142">
+      <c r="E169" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170" s="1"/>
+      <c r="D170">
         <v>142</v>
       </c>
-    </row>
-    <row r="143" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C143">
+      <c r="E170" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171" s="1"/>
+      <c r="D171">
         <v>143</v>
       </c>
-    </row>
-    <row r="144" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C144">
+      <c r="E171" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172" s="1"/>
+      <c r="D172">
         <v>144</v>
       </c>
-    </row>
-    <row r="145" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C145">
+      <c r="E172" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173" s="1"/>
+      <c r="D173">
         <v>145</v>
       </c>
-    </row>
-    <row r="146" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C146">
+      <c r="E173" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174" s="1"/>
+      <c r="D174">
         <v>146</v>
       </c>
-    </row>
-    <row r="147" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C147">
+      <c r="E174" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175" s="1"/>
+      <c r="D175">
         <v>147</v>
       </c>
-    </row>
-    <row r="148" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C148">
+      <c r="E175" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176" s="1"/>
+      <c r="D176">
         <v>148</v>
       </c>
-    </row>
-    <row r="149" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C149">
+      <c r="E176" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177" s="1"/>
+      <c r="D177">
         <v>149</v>
       </c>
-    </row>
-    <row r="150" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C150">
+      <c r="E177" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178" s="1"/>
+      <c r="D178">
         <v>150</v>
       </c>
-    </row>
-    <row r="151" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C151">
+      <c r="E178" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179" s="1"/>
+      <c r="D179">
         <v>151</v>
       </c>
-    </row>
-    <row r="152" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C152">
+      <c r="E179" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180" s="1"/>
+      <c r="D180">
         <v>152</v>
       </c>
-    </row>
-    <row r="153" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C153">
+      <c r="E180" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181" s="1"/>
+      <c r="D181">
         <v>153</v>
       </c>
-    </row>
-    <row r="154" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C154">
+      <c r="E181" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182" s="1"/>
+      <c r="D182">
         <v>154</v>
       </c>
-    </row>
-    <row r="155" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C155">
+      <c r="E182" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183" s="1"/>
+      <c r="D183">
         <v>155</v>
       </c>
-    </row>
-    <row r="156" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C156">
+      <c r="E183" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184" s="1"/>
+      <c r="D184">
         <v>156</v>
       </c>
-    </row>
-    <row r="157" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C157">
+      <c r="E184" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185" s="1"/>
+      <c r="D185">
         <v>157</v>
       </c>
-    </row>
-    <row r="158" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C158">
+      <c r="E185" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186" s="1"/>
+      <c r="D186">
         <v>158</v>
       </c>
-    </row>
-    <row r="159" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C159">
+      <c r="E186" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187" s="1"/>
+      <c r="D187">
         <v>159</v>
       </c>
-    </row>
-    <row r="160" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C160">
+      <c r="E187" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188" s="1"/>
+      <c r="D188">
         <v>160</v>
       </c>
-    </row>
-    <row r="161" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C161">
+      <c r="E188" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189" s="1"/>
+      <c r="D189">
         <v>161</v>
       </c>
-    </row>
-    <row r="162" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C162">
+      <c r="E189" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190" s="1"/>
+      <c r="D190">
         <v>162</v>
       </c>
-    </row>
-    <row r="163" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C163">
+      <c r="E190" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191" s="1"/>
+      <c r="D191">
         <v>163</v>
       </c>
-    </row>
-    <row r="164" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C164">
+      <c r="E191" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192" s="1"/>
+      <c r="D192">
         <v>164</v>
       </c>
-    </row>
-    <row r="165" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C165">
+      <c r="E192" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193" s="1"/>
+      <c r="D193">
         <v>165</v>
       </c>
-    </row>
-    <row r="166" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C166">
+      <c r="E193" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194" s="1"/>
+      <c r="D194">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C167">
+      <c r="E194" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195" s="1"/>
+      <c r="D195">
         <v>167</v>
       </c>
-    </row>
-    <row r="168" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C168">
+      <c r="E195" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196" s="1"/>
+      <c r="D196">
         <v>168</v>
       </c>
-    </row>
-    <row r="169" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C169">
+      <c r="E196" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197" s="1"/>
+      <c r="D197">
         <v>169</v>
       </c>
-    </row>
-    <row r="170" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C170">
+      <c r="E197" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198" s="1"/>
+      <c r="D198">
         <v>170</v>
       </c>
-    </row>
-    <row r="171" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C171">
+      <c r="E198" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199" s="1"/>
+      <c r="D199">
         <v>171</v>
       </c>
-    </row>
-    <row r="172" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C172">
+      <c r="E199" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200" s="1"/>
+      <c r="D200">
         <v>172</v>
       </c>
-    </row>
-    <row r="173" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C173">
+      <c r="E200" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201" s="1"/>
+      <c r="D201">
         <v>173</v>
       </c>
-    </row>
-    <row r="174" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C174">
+      <c r="E201" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202" s="1"/>
+      <c r="D202">
         <v>174</v>
       </c>
-    </row>
-    <row r="175" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C175">
+      <c r="E202" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203" s="1"/>
+      <c r="D203">
         <v>175</v>
       </c>
-    </row>
-    <row r="176" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C176">
+      <c r="E203" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204" s="1"/>
+      <c r="D204">
         <v>176</v>
       </c>
-    </row>
-    <row r="177" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C177">
+      <c r="E204" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205" s="1"/>
+      <c r="D205">
         <v>177</v>
       </c>
-    </row>
-    <row r="178" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C178">
+      <c r="E205" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206" s="1"/>
+      <c r="D206">
         <v>178</v>
       </c>
-    </row>
-    <row r="179" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C179">
+      <c r="E206" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A207" s="1"/>
+      <c r="D207">
         <v>179</v>
       </c>
-    </row>
-    <row r="180" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C180">
+      <c r="E207" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A208" s="1"/>
+      <c r="D208">
         <v>180</v>
       </c>
-    </row>
-    <row r="181" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C181">
+      <c r="E208" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A209" s="1"/>
+      <c r="D209">
         <v>181</v>
       </c>
-    </row>
-    <row r="182" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C182">
+      <c r="E209" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A210" s="1"/>
+      <c r="D210">
         <v>182</v>
       </c>
-    </row>
-    <row r="183" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C183">
+      <c r="E210" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A211" s="1"/>
+      <c r="D211">
         <v>183</v>
       </c>
-    </row>
-    <row r="184" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C184">
+      <c r="E211" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A212" s="1"/>
+      <c r="D212">
         <v>184</v>
       </c>
-    </row>
-    <row r="185" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C185">
+      <c r="E212" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A213" s="1"/>
+      <c r="D213">
         <v>185</v>
       </c>
-    </row>
-    <row r="186" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C186">
+      <c r="E213" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A214" s="1"/>
+      <c r="D214">
         <v>186</v>
       </c>
-    </row>
-    <row r="187" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C187">
+      <c r="E214" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A215" s="1"/>
+      <c r="D215">
         <v>187</v>
       </c>
-    </row>
-    <row r="188" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C188">
+      <c r="E215" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A216" s="1"/>
+      <c r="D216">
         <v>188</v>
       </c>
-    </row>
-    <row r="189" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C189">
+      <c r="E216" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A217" s="1"/>
+      <c r="D217">
         <v>189</v>
       </c>
-    </row>
-    <row r="190" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C190">
+      <c r="E217" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A218" s="1"/>
+      <c r="D218">
         <v>190</v>
       </c>
-    </row>
-    <row r="191" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C191">
+      <c r="E218" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A219" s="1"/>
+      <c r="D219">
         <v>191</v>
       </c>
-    </row>
-    <row r="192" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C192">
+      <c r="E219" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A220" s="1"/>
+      <c r="D220">
         <v>192</v>
       </c>
-    </row>
-    <row r="193" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C193">
+      <c r="E220" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A221" s="1"/>
+      <c r="D221">
         <v>193</v>
       </c>
-    </row>
-    <row r="194" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C194">
+      <c r="E221" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A222" s="1"/>
+      <c r="D222">
         <v>194</v>
       </c>
-    </row>
-    <row r="195" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C195">
+      <c r="E222" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A223" s="1"/>
+      <c r="D223">
         <v>195</v>
       </c>
-    </row>
-    <row r="196" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C196">
+      <c r="E223" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A224" s="1"/>
+      <c r="D224">
         <v>196</v>
       </c>
-    </row>
-    <row r="197" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C197">
+      <c r="E224" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A225" s="1"/>
+      <c r="D225">
         <v>197</v>
       </c>
-    </row>
-    <row r="198" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C198">
+      <c r="E225" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A226" s="1"/>
+      <c r="D226">
         <v>198</v>
       </c>
-    </row>
-    <row r="199" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C199">
+      <c r="E226" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A227" s="1"/>
+      <c r="D227">
         <v>199</v>
       </c>
-    </row>
-    <row r="200" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C200">
+      <c r="E227" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A228" s="1"/>
+      <c r="D228">
         <v>200</v>
       </c>
-    </row>
-    <row r="201" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C201">
+      <c r="E228" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A229" s="1"/>
+      <c r="D229">
         <v>201</v>
       </c>
-    </row>
-    <row r="202" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C202">
+      <c r="E229" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A230" s="1"/>
+      <c r="D230">
         <v>202</v>
       </c>
-    </row>
-    <row r="203" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C203">
+      <c r="E230" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A231" s="1"/>
+      <c r="D231">
         <v>203</v>
       </c>
-    </row>
-    <row r="204" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C204">
+      <c r="E231" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A232" s="1"/>
+      <c r="D232">
         <v>204</v>
       </c>
-    </row>
-    <row r="205" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C205">
+      <c r="E232" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A233" s="1"/>
+      <c r="D233">
         <v>205</v>
       </c>
-    </row>
-    <row r="206" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C206">
+      <c r="E233" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A234" s="1"/>
+      <c r="D234">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C207">
+      <c r="E234" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A235" s="1"/>
+      <c r="D235">
         <v>207</v>
       </c>
-    </row>
-    <row r="208" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C208">
+      <c r="E235" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A236" s="1"/>
+      <c r="D236">
         <v>208</v>
       </c>
-    </row>
-    <row r="209" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C209">
+      <c r="E236" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A237" s="1"/>
+      <c r="D237">
         <v>209</v>
       </c>
-    </row>
-    <row r="210" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C210">
+      <c r="E237" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A238" s="1"/>
+      <c r="D238">
         <v>213</v>
       </c>
-    </row>
-    <row r="211" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C211">
+      <c r="E238" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A239" s="1"/>
+      <c r="D239">
         <v>214</v>
       </c>
-    </row>
-    <row r="212" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C212">
+      <c r="E239" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A240" s="1"/>
+      <c r="D240">
         <v>215</v>
       </c>
-    </row>
-    <row r="213" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C213">
+      <c r="E240" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A241" s="1"/>
+      <c r="D241">
         <v>216</v>
       </c>
-    </row>
-    <row r="214" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C214">
+      <c r="E241" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A242" s="1"/>
+      <c r="D242">
         <v>217</v>
       </c>
-    </row>
-    <row r="215" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C215">
+      <c r="E242" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A243" s="1"/>
+      <c r="D243">
         <v>218</v>
       </c>
-    </row>
-    <row r="216" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C216">
+      <c r="E243" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A244" s="1"/>
+      <c r="D244">
         <v>221</v>
       </c>
-    </row>
-    <row r="217" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C217">
+      <c r="E244" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A245" s="1"/>
+      <c r="D245">
         <v>222</v>
       </c>
-    </row>
-    <row r="218" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C218">
+      <c r="E245" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A246" s="1"/>
+      <c r="D246">
         <v>223</v>
       </c>
-    </row>
-    <row r="219" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C219">
+      <c r="E246" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A247" s="1"/>
+      <c r="D247">
         <v>224</v>
       </c>
-    </row>
-    <row r="220" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C220">
+      <c r="E247" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A248" s="1"/>
+      <c r="D248">
         <v>225</v>
       </c>
-    </row>
-    <row r="221" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C221">
+      <c r="E248" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A249" s="1"/>
+      <c r="D249">
         <v>227</v>
       </c>
-    </row>
-    <row r="222" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C222">
+      <c r="E249" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A250" s="1"/>
+      <c r="D250">
         <v>229</v>
       </c>
-    </row>
-    <row r="223" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C223">
+      <c r="E250" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A251" s="1"/>
+      <c r="D251">
         <v>230</v>
       </c>
-    </row>
-    <row r="224" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C224">
+      <c r="E251" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A252" s="1"/>
+      <c r="D252">
         <v>231</v>
       </c>
-    </row>
-    <row r="225" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C225">
+      <c r="E252" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A253" s="1"/>
+      <c r="D253">
         <v>234</v>
       </c>
-    </row>
-    <row r="226" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C226">
+      <c r="E253" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A254" s="1"/>
+      <c r="D254">
         <v>235</v>
       </c>
-    </row>
-    <row r="227" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C227">
+      <c r="E254" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A255" s="1"/>
+      <c r="D255">
         <v>236</v>
       </c>
-    </row>
-    <row r="228" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C228">
+      <c r="E255" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A256" s="1"/>
+      <c r="D256">
         <v>237</v>
       </c>
-    </row>
-    <row r="229" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C229">
+      <c r="E256" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A257" s="1"/>
+      <c r="D257">
         <v>238</v>
       </c>
-    </row>
-    <row r="230" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C230">
+      <c r="E257" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A258" s="1"/>
+      <c r="D258">
         <v>240</v>
       </c>
-    </row>
-    <row r="231" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C231">
+      <c r="E258" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A259" s="1"/>
+      <c r="D259">
         <v>241</v>
       </c>
-    </row>
-    <row r="232" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C232">
+      <c r="E259" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A260" s="1"/>
+      <c r="D260">
         <v>242</v>
       </c>
-    </row>
-    <row r="233" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C233">
+      <c r="E260" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A261" s="1"/>
+      <c r="D261">
         <v>243</v>
       </c>
-    </row>
-    <row r="234" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C234">
+      <c r="E261" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A262" s="1"/>
+      <c r="D262">
         <v>244</v>
       </c>
-    </row>
-    <row r="235" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C235">
+      <c r="E262" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A263" s="1"/>
+      <c r="D263">
         <v>246</v>
       </c>
-    </row>
-    <row r="236" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C236">
+      <c r="E263" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A264" s="1"/>
+      <c r="D264">
         <v>248</v>
       </c>
-    </row>
-    <row r="237" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C237">
+      <c r="E264" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A265" s="1"/>
+      <c r="D265">
         <v>249</v>
       </c>
-    </row>
-    <row r="238" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C238">
+      <c r="E265" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A266" s="1"/>
+      <c r="D266">
         <v>250</v>
       </c>
-    </row>
-    <row r="239" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C239">
+      <c r="E266" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A267" s="1"/>
+      <c r="D267">
         <v>251</v>
       </c>
-    </row>
-    <row r="240" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C240">
+      <c r="E267" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A268" s="1"/>
+      <c r="D268">
         <v>252</v>
       </c>
-    </row>
-    <row r="241" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C241">
+      <c r="E268" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A269" s="1"/>
+      <c r="D269">
         <v>253</v>
       </c>
-    </row>
-    <row r="242" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C242">
+      <c r="E269" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A270" s="1"/>
+      <c r="D270">
         <v>254</v>
       </c>
-    </row>
-    <row r="243" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C243">
+      <c r="E270" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A271" s="1"/>
+      <c r="D271">
         <v>255</v>
       </c>
-    </row>
-    <row r="244" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C244">
+      <c r="E271" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A272" s="1"/>
+      <c r="D272">
         <v>256</v>
       </c>
-    </row>
-    <row r="245" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C245">
+      <c r="E272" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A273" s="1"/>
+      <c r="D273">
         <v>258</v>
       </c>
-    </row>
-    <row r="246" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C246">
+      <c r="E273" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A274" s="1"/>
+      <c r="D274">
         <v>259</v>
       </c>
-    </row>
-    <row r="247" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C247">
+      <c r="E274" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A275" s="1"/>
+      <c r="D275">
         <v>260</v>
       </c>
-    </row>
-    <row r="248" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C248">
+      <c r="E275" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A276" s="1"/>
+      <c r="D276">
         <v>261</v>
       </c>
-    </row>
-    <row r="249" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C249">
+      <c r="E276" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A277" s="1"/>
+      <c r="D277">
         <v>262</v>
       </c>
-    </row>
-    <row r="250" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C250">
+      <c r="E277" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A278" s="1"/>
+      <c r="D278">
         <v>263</v>
       </c>
-    </row>
-    <row r="251" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C251">
+      <c r="E278" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A279" s="1"/>
+      <c r="D279">
         <v>265</v>
       </c>
-    </row>
-    <row r="252" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C252">
+      <c r="E279" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A280" s="1"/>
+      <c r="D280">
         <v>267</v>
       </c>
-    </row>
-    <row r="253" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C253">
+      <c r="E280" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A281" s="1"/>
+      <c r="D281">
         <v>268</v>
       </c>
-    </row>
-    <row r="254" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C254">
+      <c r="E281" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A282" s="1"/>
+      <c r="D282">
         <v>269</v>
       </c>
-    </row>
-    <row r="255" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C255">
+      <c r="E282" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A283" s="1"/>
+      <c r="D283">
         <v>270</v>
       </c>
-    </row>
-    <row r="256" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C256">
+      <c r="E283" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A284" s="1"/>
+      <c r="D284">
         <v>271</v>
       </c>
-    </row>
-    <row r="257" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C257">
+      <c r="E284" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A285" s="1"/>
+      <c r="D285">
         <v>272</v>
       </c>
-    </row>
-    <row r="258" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C258">
+      <c r="E285" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A286" s="1"/>
+      <c r="D286">
         <v>273</v>
       </c>
-    </row>
-    <row r="259" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C259">
+      <c r="E286" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A287" s="1"/>
+      <c r="D287">
         <v>274</v>
       </c>
-    </row>
-    <row r="260" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C260">
+      <c r="E287" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A288" s="1"/>
+      <c r="D288">
         <v>275</v>
       </c>
-    </row>
-    <row r="261" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C261">
+      <c r="E288" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A289" s="1"/>
+      <c r="D289">
         <v>276</v>
       </c>
-    </row>
-    <row r="262" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C262">
+      <c r="E289" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A290" s="1"/>
+      <c r="D290">
         <v>277</v>
       </c>
-    </row>
-    <row r="263" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C263">
+      <c r="E290" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A291" s="1"/>
+      <c r="D291">
         <v>281</v>
       </c>
-    </row>
-    <row r="264" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C264">
+      <c r="E291" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A292" s="1"/>
+      <c r="D292">
         <v>282</v>
       </c>
-    </row>
-    <row r="265" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C265">
+      <c r="E292" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A293" s="1"/>
+      <c r="D293">
         <v>283</v>
       </c>
-    </row>
-    <row r="266" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C266">
+      <c r="E293" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A294" s="1"/>
+      <c r="D294">
         <v>284</v>
       </c>
-    </row>
-    <row r="267" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C267">
+      <c r="E294" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A295" s="1"/>
+      <c r="D295">
         <v>285</v>
       </c>
-    </row>
-    <row r="268" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C268">
+      <c r="E295" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A296" s="1"/>
+      <c r="D296">
         <v>286</v>
       </c>
-    </row>
-    <row r="269" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C269">
+      <c r="E296" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A297" s="1"/>
+      <c r="D297">
         <v>287</v>
       </c>
-    </row>
-    <row r="270" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C270">
+      <c r="E297" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A298" s="1"/>
+      <c r="D298">
         <v>288</v>
       </c>
-    </row>
-    <row r="271" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C271">
+      <c r="E298" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A299" s="1"/>
+      <c r="D299">
         <v>289</v>
       </c>
-    </row>
-    <row r="272" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C272">
+      <c r="E299" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A300" s="1"/>
+      <c r="D300">
         <v>290</v>
       </c>
-    </row>
-    <row r="273" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C273">
+      <c r="E300" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A301" s="1"/>
+      <c r="D301">
         <v>291</v>
       </c>
-    </row>
-    <row r="274" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C274">
+      <c r="E301" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A302" s="1"/>
+      <c r="D302">
         <v>292</v>
       </c>
-    </row>
-    <row r="275" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C275">
+      <c r="E302" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A303" s="1"/>
+      <c r="D303">
         <v>293</v>
       </c>
-    </row>
-    <row r="276" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C276">
+      <c r="E303" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A304" s="1"/>
+      <c r="D304">
         <v>294</v>
       </c>
-    </row>
-    <row r="277" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C277">
+      <c r="E304" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A305" s="1"/>
+      <c r="D305">
         <v>295</v>
       </c>
-    </row>
-    <row r="278" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C278">
+      <c r="E305" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A306" s="1"/>
+      <c r="D306">
         <v>296</v>
       </c>
-    </row>
-    <row r="279" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C279">
+      <c r="E306" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A307" s="1"/>
+      <c r="D307">
         <v>297</v>
       </c>
-    </row>
-    <row r="280" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C280">
+      <c r="E307" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A308" s="1"/>
+      <c r="D308">
         <v>298</v>
       </c>
-    </row>
-    <row r="281" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C281">
+      <c r="E308" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A309" s="1"/>
+      <c r="D309">
         <v>299</v>
       </c>
-    </row>
-    <row r="282" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C282">
+      <c r="E309" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A310" s="1"/>
+      <c r="D310">
         <v>300</v>
       </c>
-    </row>
-    <row r="283" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C283">
+      <c r="E310" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A311" s="1"/>
+      <c r="D311">
         <v>301</v>
       </c>
-    </row>
-    <row r="284" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C284">
+      <c r="E311" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A312" s="1"/>
+      <c r="D312">
         <v>302</v>
       </c>
-    </row>
-    <row r="285" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C285">
+      <c r="E312" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A313" s="1"/>
+      <c r="D313">
         <v>303</v>
       </c>
-    </row>
-    <row r="286" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C286">
+      <c r="E313" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A314" s="1"/>
+      <c r="D314">
         <v>304</v>
       </c>
-    </row>
-    <row r="287" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C287">
+      <c r="E314" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A315" s="1"/>
+      <c r="D315">
         <v>305</v>
       </c>
-    </row>
-    <row r="288" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C288">
+      <c r="E315" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A316" s="1"/>
+      <c r="D316">
         <v>306</v>
       </c>
-    </row>
-    <row r="289" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C289">
+      <c r="E316" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A317" s="1"/>
+      <c r="D317">
         <v>307</v>
       </c>
-    </row>
-    <row r="290" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C290">
+      <c r="E317" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A318" s="1"/>
+      <c r="D318">
         <v>308</v>
       </c>
-    </row>
-    <row r="291" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C291">
+      <c r="E318" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A319" s="1"/>
+      <c r="D319">
         <v>309</v>
       </c>
-    </row>
-    <row r="292" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C292">
+      <c r="E319" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A320" s="1"/>
+      <c r="D320">
         <v>310</v>
       </c>
-    </row>
-    <row r="293" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C293">
+      <c r="E320" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A321" s="1"/>
+      <c r="D321">
         <v>311</v>
       </c>
-    </row>
-    <row r="294" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C294">
+      <c r="E321" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A322" s="1"/>
+      <c r="D322">
         <v>312</v>
       </c>
-    </row>
-    <row r="295" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C295">
+      <c r="E322" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A323" s="1"/>
+      <c r="D323">
         <v>313</v>
       </c>
-    </row>
-    <row r="296" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C296">
+      <c r="E323" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1"/>
+      <c r="D324">
         <v>314</v>
       </c>
-    </row>
-    <row r="297" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C297">
+      <c r="E324" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A325" s="1"/>
+      <c r="D325">
         <v>315</v>
       </c>
-    </row>
-    <row r="298" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C298">
+      <c r="E325" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A326" s="1"/>
+      <c r="D326">
         <v>316</v>
       </c>
-    </row>
-    <row r="299" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C299">
+      <c r="E326" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A327" s="1"/>
+      <c r="D327">
         <v>317</v>
       </c>
-    </row>
-    <row r="300" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C300">
+      <c r="E327" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A328" s="1"/>
+      <c r="D328">
         <v>318</v>
       </c>
-    </row>
-    <row r="301" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C301">
+      <c r="E328" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A329" s="1"/>
+      <c r="D329">
         <v>319</v>
       </c>
-    </row>
-    <row r="302" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C302">
+      <c r="E329" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A330" s="1"/>
+      <c r="D330">
         <v>320</v>
       </c>
-    </row>
-    <row r="303" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C303">
+      <c r="E330" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A331" s="1"/>
+      <c r="D331">
         <v>321</v>
       </c>
-    </row>
-    <row r="304" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C304">
+      <c r="E331" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A332" s="1"/>
+      <c r="D332">
         <v>322</v>
       </c>
-    </row>
-    <row r="305" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C305">
+      <c r="E332" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A333" s="1"/>
+      <c r="D333">
         <v>323</v>
       </c>
-    </row>
-    <row r="306" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C306">
+      <c r="E333" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A334" s="1"/>
+      <c r="D334">
         <v>324</v>
       </c>
-    </row>
-    <row r="307" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C307">
+      <c r="E334" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A335" s="1"/>
+      <c r="D335">
         <v>326</v>
       </c>
-    </row>
-    <row r="308" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C308">
+      <c r="E335" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A336" s="1"/>
+      <c r="D336">
         <v>327</v>
       </c>
-    </row>
-    <row r="309" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C309">
+      <c r="E336" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A337" s="1"/>
+      <c r="D337">
         <v>328</v>
       </c>
-    </row>
-    <row r="310" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C310">
+      <c r="E337" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A338" s="1"/>
+      <c r="D338">
         <v>329</v>
       </c>
-    </row>
-    <row r="311" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C311">
+      <c r="E338" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A339" s="1"/>
+      <c r="D339">
         <v>330</v>
       </c>
-    </row>
-    <row r="312" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C312">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="313" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C313">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="314" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C314">
+      <c r="E339" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A340" s="1"/>
+      <c r="D340">
         <v>334</v>
       </c>
-    </row>
-    <row r="315" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C315">
+      <c r="E340" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A341" s="1"/>
+      <c r="D341">
         <v>335</v>
       </c>
-    </row>
-    <row r="316" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C316">
+      <c r="E341" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A342" s="1"/>
+      <c r="D342">
         <v>337</v>
       </c>
-    </row>
-    <row r="317" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C317">
+      <c r="E342" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A343" s="1"/>
+      <c r="D343">
         <v>338</v>
       </c>
-    </row>
-    <row r="318" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C318">
+      <c r="E343" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A344" s="1"/>
+      <c r="D344">
         <v>339</v>
       </c>
-    </row>
-    <row r="319" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C319">
+      <c r="E344" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A345" s="1"/>
+      <c r="D345">
         <v>340</v>
       </c>
-    </row>
-    <row r="320" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C320">
+      <c r="E345" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A346" s="1"/>
+      <c r="D346">
         <v>341</v>
       </c>
-    </row>
-    <row r="321" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C321">
+      <c r="E346" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A347" s="1"/>
+      <c r="D347">
         <v>342</v>
       </c>
-    </row>
-    <row r="322" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C322">
+      <c r="E347" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A348" s="1"/>
+      <c r="D348">
         <v>343</v>
       </c>
-    </row>
-    <row r="323" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C323">
+      <c r="E348" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A349" s="1"/>
+      <c r="D349">
         <v>344</v>
       </c>
-    </row>
-    <row r="324" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C324">
+      <c r="E349" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A350" s="1"/>
+      <c r="D350">
         <v>345</v>
       </c>
-    </row>
-    <row r="325" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C325">
+      <c r="E350" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A351" s="1"/>
+      <c r="D351">
         <v>346</v>
       </c>
-    </row>
-    <row r="326" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C326">
+      <c r="E351" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A352" s="1"/>
+      <c r="D352">
         <v>347</v>
       </c>
-    </row>
-    <row r="327" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C327">
+      <c r="E352" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A353" s="1"/>
+      <c r="D353">
         <v>348</v>
       </c>
-    </row>
-    <row r="328" spans="3:3" x14ac:dyDescent="0.25">
-      <c r="C328">
+      <c r="E353" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A354" s="1"/>
+      <c r="D354">
         <v>352</v>
       </c>
+      <c r="E354" s="1" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A355" s="1"/>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A356" s="1"/>
     </row>
   </sheetData>
+  <sortState ref="D1:E356">
+    <sortCondition ref="E1:E356"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
